--- a/Sorption Experiments/RaABW_7_11_2017/RaABW.xlsx
+++ b/Sorption Experiments/RaABW_7_11_2017/RaABW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="132">
   <si>
     <t>Parameters</t>
   </si>
@@ -649,7 +649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -812,11 +811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198856000"/>
-        <c:axId val="198857176"/>
+        <c:axId val="226652784"/>
+        <c:axId val="226653568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198856000"/>
+        <c:axId val="226652784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,19 +837,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198857176"/>
+        <c:crossAx val="226653568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198857176"/>
+        <c:axId val="226653568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,21 +870,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198856000"/>
+        <c:crossAx val="226652784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -931,7 +927,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1116,11 +1111,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="208198968"/>
-        <c:axId val="208200928"/>
+        <c:axId val="226656704"/>
+        <c:axId val="226657096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="208198968"/>
+        <c:axId val="226656704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,19 +1137,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208200928"/>
+        <c:crossAx val="226657096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208200928"/>
+        <c:axId val="226657096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,21 +1170,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208198968"/>
+        <c:crossAx val="226656704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1683,11 +1675,11 @@
       </c>
       <c r="B8">
         <f>AVERAGE('Count-&gt;Actual Activity'!F15/5,'Count-&gt;Actual Activity'!F16/10)</f>
-        <v>0.67623007896681209</v>
+        <v>0.67298429697439288</v>
       </c>
       <c r="C8">
         <f>_xlfn.STDEV.S('Count-&gt;Actual Activity'!F15/5,'Count-&gt;Actual Activity'!F16/10)</f>
-        <v>1.5397555168654688E-2</v>
+        <v>2.0413036897778191E-2</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1702,7 +1694,7 @@
       </c>
       <c r="B9">
         <f>'Count-&gt;Actual Activity'!F14/10</f>
-        <v>0.65313751547445686</v>
+        <v>0.64951143749927476</v>
       </c>
       <c r="C9">
         <f>'Count-&gt;Actual Activity'!G14/10</f>
@@ -1736,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,6 +2599,306 @@
       </c>
       <c r="F43">
         <v>351.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44">
+        <v>1264.5999999999999</v>
+      </c>
+      <c r="D44">
+        <v>1.78</v>
+      </c>
+      <c r="E44">
+        <v>0.02</v>
+      </c>
+      <c r="F44">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45">
+        <v>1197.8</v>
+      </c>
+      <c r="D45">
+        <v>1.83</v>
+      </c>
+      <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="F45">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46">
+        <v>1187.3</v>
+      </c>
+      <c r="D46">
+        <v>1.84</v>
+      </c>
+      <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="F46">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47">
+        <v>1146.2</v>
+      </c>
+      <c r="D47">
+        <v>1.87</v>
+      </c>
+      <c r="E47">
+        <v>0.01</v>
+      </c>
+      <c r="F47">
+        <v>42.49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="D48">
+        <v>1.83</v>
+      </c>
+      <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="F48">
+        <v>53.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49">
+        <v>1193.5</v>
+      </c>
+      <c r="D49">
+        <v>1.83</v>
+      </c>
+      <c r="E49">
+        <v>0.01</v>
+      </c>
+      <c r="F49">
+        <v>63.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50">
+        <v>1168.0999999999999</v>
+      </c>
+      <c r="D50">
+        <v>1.85</v>
+      </c>
+      <c r="E50">
+        <v>0.01</v>
+      </c>
+      <c r="F50">
+        <v>74.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="D51">
+        <v>1.85</v>
+      </c>
+      <c r="E51">
+        <v>0.02</v>
+      </c>
+      <c r="F51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52">
+        <v>1157.8</v>
+      </c>
+      <c r="D52">
+        <v>1.86</v>
+      </c>
+      <c r="E52">
+        <v>0.02</v>
+      </c>
+      <c r="F52">
+        <v>95.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53">
+        <v>1121.3</v>
+      </c>
+      <c r="D53">
+        <v>1.89</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>106.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54">
+        <v>1148.0999999999999</v>
+      </c>
+      <c r="D54">
+        <v>1.87</v>
+      </c>
+      <c r="E54">
+        <v>0.01</v>
+      </c>
+      <c r="F54">
+        <v>116.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55">
+        <v>1109.0999999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.9</v>
+      </c>
+      <c r="E55">
+        <v>0.01</v>
+      </c>
+      <c r="F55">
+        <v>127.51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56">
+        <v>2435.6</v>
+      </c>
+      <c r="D56">
+        <v>1.28</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>138.24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57">
+        <v>1311.5</v>
+      </c>
+      <c r="D57">
+        <v>1.75</v>
+      </c>
+      <c r="E57">
+        <v>0.01</v>
+      </c>
+      <c r="F57">
+        <v>148.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>42933.388888888891</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58">
+        <v>2445.8000000000002</v>
+      </c>
+      <c r="D58">
+        <v>1.28</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>159.51</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +6289,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C2" sqref="C2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6042,17 +6334,17 @@
         <v>85</v>
       </c>
       <c r="C2">
-        <v>21.28722222222223</v>
+        <v>21.23458333333333</v>
       </c>
       <c r="D2">
-        <v>0.37678383333333348</v>
+        <v>0.37638298958333333</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="1">
         <f>C2*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.349182188280508</v>
+        <v>3.3408024105207867</v>
       </c>
       <c r="G2" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6067,17 +6359,17 @@
         <v>85</v>
       </c>
       <c r="C3">
-        <v>19.984999999999999</v>
+        <v>19.979583333333331</v>
       </c>
       <c r="D3">
-        <v>0.36505933333333329</v>
+        <v>0.3651268854166666</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="1">
         <f>C3*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.1418766572115602</v>
+        <v>3.1410143581808763</v>
       </c>
       <c r="G3" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6092,17 +6384,17 @@
         <v>85</v>
       </c>
       <c r="C4">
-        <v>20.198888888888892</v>
+        <v>20.096250000000001</v>
       </c>
       <c r="D4">
-        <v>0.36694648148148151</v>
+        <v>0.36625415625000007</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="1">
         <f>C4*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.1759264138077827</v>
+        <v>3.1595869526879072</v>
       </c>
       <c r="G4" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6117,17 +6409,17 @@
         <v>85</v>
       </c>
       <c r="C5">
-        <v>19.633333333333329</v>
+        <v>19.500833333333329</v>
       </c>
       <c r="D5">
-        <v>0.36190777777777777</v>
+        <v>0.36076541666666662</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1">
         <f>C5*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.0858935509117975</v>
+        <v>3.0648003900073846</v>
       </c>
       <c r="G5" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6142,17 +6434,17 @@
         <v>85</v>
       </c>
       <c r="C6">
-        <v>20.231666666666669</v>
+        <v>20.174166666666661</v>
       </c>
       <c r="D6">
-        <v>0.36686755555555561</v>
+        <v>0.36666547916666659</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1">
         <f>C6*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.1811444284549961</v>
+        <v>3.1719907925908157</v>
       </c>
       <c r="G6" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6167,17 +6459,17 @@
         <v>85</v>
       </c>
       <c r="C7">
-        <v>19.812222222222221</v>
+        <v>19.83208333333333</v>
       </c>
       <c r="D7">
-        <v>0.36322407407407398</v>
+        <v>0.36342292708333329</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1">
         <f>C7*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.1143715291559109</v>
+        <v>3.1175332922684169</v>
       </c>
       <c r="G7" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6192,17 +6484,17 @@
         <v>85</v>
       </c>
       <c r="C8">
-        <v>19.497777777777781</v>
+        <v>19.490416666666668</v>
       </c>
       <c r="D8">
-        <v>0.36070888888888902</v>
+        <v>0.36057270833333338</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1">
         <f>C8*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.0643139649131541</v>
+        <v>3.0631421226406865</v>
       </c>
       <c r="G8" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6217,17 +6509,17 @@
         <v>85</v>
       </c>
       <c r="C9">
-        <v>19.372777777777781</v>
+        <v>19.397916666666671</v>
       </c>
       <c r="D9">
-        <v>0.35968790740740741</v>
+        <v>0.35983135416666667</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1">
         <f>C9*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.0444147565127646</v>
+        <v>3.0484167084243983</v>
       </c>
       <c r="G9" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6242,17 +6534,17 @@
         <v>85</v>
       </c>
       <c r="C10">
-        <v>19.684999999999999</v>
+        <v>19.587916666666661</v>
       </c>
       <c r="D10">
-        <v>0.36220400000000003</v>
+        <v>0.36139706249999998</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1">
         <f>C10*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.0941185570506256</v>
+        <v>3.0786635051929889</v>
       </c>
       <c r="G10" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6267,17 +6559,17 @@
         <v>85</v>
       </c>
       <c r="C11">
-        <v>18.666666666666671</v>
+        <v>18.67208333333333</v>
       </c>
       <c r="D11">
-        <v>0.35342222222222219</v>
+        <v>0.35336917708333332</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1">
         <f>C11*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.9320063392821201</v>
+        <v>2.9328686383128022</v>
       </c>
       <c r="G11" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6292,17 +6584,17 @@
         <v>85</v>
       </c>
       <c r="C12">
-        <v>18.98833333333333</v>
+        <v>19.024999999999999</v>
       </c>
       <c r="D12">
-        <v>0.35571477777777771</v>
+        <v>0.35624312499999999</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1">
         <f>C12*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.9832136355657877</v>
+        <v>2.9890507366965688</v>
       </c>
       <c r="G12" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6317,17 +6609,17 @@
         <v>85</v>
       </c>
       <c r="C13">
-        <v>18.617222222222221</v>
+        <v>18.584166666666668</v>
       </c>
       <c r="D13">
-        <v>0.35186550000000011</v>
+        <v>0.35170535416666671</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="1">
         <f>C13*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>2.9241350968481874</v>
+        <v>2.9188728617378628</v>
       </c>
       <c r="G13" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6342,17 +6634,17 @@
         <v>85</v>
       </c>
       <c r="C14">
-        <v>41.276666666666671</v>
+        <v>41.048888888888889</v>
       </c>
       <c r="D14">
-        <v>0.52421366666666669</v>
+        <v>0.52268918518518515</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="1">
         <f>C14*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>6.5313751547445689</v>
+        <v>6.4951143749927471</v>
       </c>
       <c r="G14" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6367,17 +6659,17 @@
         <v>85</v>
       </c>
       <c r="C15">
-        <v>21.83</v>
+        <v>21.839444444444439</v>
       </c>
       <c r="D15">
-        <v>0.382025</v>
+        <v>0.38219027777777781</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1">
         <f>C15*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.435588973201309</v>
+        <v>3.4370924689471156</v>
       </c>
       <c r="G15" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6392,17 +6684,17 @@
         <v>85</v>
       </c>
       <c r="C16">
-        <v>42.043333333333337</v>
+        <v>41.616666666666667</v>
       </c>
       <c r="D16">
-        <v>0.52974600000000005</v>
+        <v>0.52714444444444442</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1">
         <f>C16*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>6.6534236329336238</v>
+        <v>6.5855010015936273</v>
       </c>
       <c r="G16" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6419,10 +6711,10 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6521,7 +6813,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <f>0.08</f>
+        <f t="shared" ref="C2:C13" si="0">0.08</f>
         <v>0.08</v>
       </c>
       <c r="D2" s="1">
@@ -6542,7 +6834,7 @@
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>3.349182188280508</v>
+        <v>3.3408024105207867</v>
       </c>
       <c r="K2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
@@ -6555,28 +6847,28 @@
         <v>0.02</v>
       </c>
       <c r="N2">
-        <f>J2/L2</f>
-        <v>0.66983643765610157</v>
+        <f t="shared" ref="N2:N13" si="1">J2/L2</f>
+        <v>0.66816048210415735</v>
       </c>
       <c r="O2">
-        <f>SQRT((M2/L2)^2+(K2/J2)^2)*N2</f>
-        <v>3.1603915830765474E-2</v>
+        <f t="shared" ref="O2:O13" si="2">SQRT((M2/L2)^2+(K2/J2)^2)*N2</f>
+        <v>3.1603348193889998E-2</v>
       </c>
       <c r="P2">
         <f>B2*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q2">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R2" t="e">
-        <f>(P2-N2*H2)/F2</f>
+        <f t="shared" ref="R2:R13" si="3">(P2-N2*H2)/F2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2">
-        <f>(P2-N2*H2)/P2</f>
-        <v>-7.7520175112027216E-3</v>
+        <f t="shared" ref="T2:T13" si="4">(P2-N2*H2)/P2</f>
+        <v>-1.0453893630249858E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -6588,7 +6880,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D3" s="1">
@@ -6609,7 +6901,7 @@
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>3.1418766572115602</v>
+        <v>3.1410143581808763</v>
       </c>
       <c r="K3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
@@ -6622,28 +6914,28 @@
         <v>0.02</v>
       </c>
       <c r="N3">
-        <f>J3/L3</f>
-        <v>0.62837533144231206</v>
+        <f t="shared" si="1"/>
+        <v>0.62820287163617528</v>
       </c>
       <c r="O3">
-        <f>SQRT((M3/L3)^2+(K3/J3)^2)*N3</f>
-        <v>3.159028792368572E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.159023304367397E-2</v>
       </c>
       <c r="P3">
         <f>B3*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q3">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R3" t="e">
-        <f>(P3-N3*H3)/F3</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T3">
-        <f>(P3-N3*H3)/P3</f>
-        <v>5.4625170539955525E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.9973689501251889E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -6655,7 +6947,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D4" s="1">
@@ -6676,7 +6968,7 @@
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>3.1759264138077827</v>
+        <v>3.1595869526879072</v>
       </c>
       <c r="K4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
@@ -6689,28 +6981,28 @@
         <v>0.02</v>
       </c>
       <c r="N4">
-        <f>J4/L4</f>
-        <v>0.6351852827615565</v>
+        <f t="shared" si="1"/>
+        <v>0.63191739053758145</v>
       </c>
       <c r="O4">
-        <f>SQRT((M4/L4)^2+(K4/J4)^2)*N4</f>
-        <v>3.1592466945170802E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.15914183854119E-2</v>
       </c>
       <c r="P4">
         <f>B4*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q4">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R4" t="e">
-        <f>(P4-N4*H4)/F4</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T4">
-        <f>(P4-N4*H4)/P4</f>
-        <v>4.4379770625409515E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.4356251494339236E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -6722,7 +7014,7 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D5" s="1">
@@ -6743,7 +7035,7 @@
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>3.0858935509117975</v>
+        <v>3.0648003900073846</v>
       </c>
       <c r="K5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
@@ -6756,28 +7048,28 @@
         <v>0.02</v>
       </c>
       <c r="N5">
-        <f>J5/L5</f>
-        <v>0.61717871018235948</v>
+        <f t="shared" si="1"/>
+        <v>0.61296007800147689</v>
       </c>
       <c r="O5">
-        <f>SQRT((M5/L5)^2+(K5/J5)^2)*N5</f>
-        <v>3.158675600867486E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1585441632218741E-2</v>
       </c>
       <c r="P5">
         <f>B5*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q5">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R5">
-        <f>(P5-N5*H5)/F5</f>
-        <v>154.73969719307814</v>
+        <f t="shared" si="3"/>
+        <v>157.28921575034832</v>
       </c>
       <c r="T5">
-        <f>(P5-N5*H5)/P5</f>
-        <v>7.1470204685170333E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.3025247608189389E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -6789,7 +7081,7 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D6" s="1">
@@ -6810,7 +7102,7 @@
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>3.1811444284549961</v>
+        <v>3.1719907925908157</v>
       </c>
       <c r="K6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
@@ -6823,28 +7115,28 @@
         <v>0.02</v>
       </c>
       <c r="N6">
-        <f>J6/L6</f>
-        <v>0.63622888569099922</v>
+        <f t="shared" si="1"/>
+        <v>0.63439815851816317</v>
       </c>
       <c r="O6">
-        <f>SQRT((M6/L6)^2+(K6/J6)^2)*N6</f>
-        <v>3.1592802935265514E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1592213891451476E-2</v>
       </c>
       <c r="P6">
         <f>B6*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q6">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R6">
-        <f>(P6-N6*H6)/F6</f>
-        <v>94.534589799452675</v>
+        <f t="shared" si="3"/>
+        <v>89.201690095251351</v>
       </c>
       <c r="T6">
-        <f>(P6-N6*H6)/P6</f>
-        <v>4.280969635279068E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.0604605396865667E-2</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -6856,7 +7148,7 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D7" s="1">
@@ -6877,7 +7169,7 @@
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>3.1143715291559109</v>
+        <v>3.1175332922684169</v>
       </c>
       <c r="K7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
@@ -6890,28 +7182,28 @@
         <v>0.02</v>
       </c>
       <c r="N7">
-        <f>J7/L7</f>
-        <v>0.6228743058311822</v>
+        <f t="shared" si="1"/>
+        <v>0.62350665845368336</v>
       </c>
       <c r="O7">
-        <f>SQRT((M7/L7)^2+(K7/J7)^2)*N7</f>
-        <v>3.1588544768642868E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1588744372590953E-2</v>
       </c>
       <c r="P7">
         <f>B7*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q7">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R7">
-        <f>(P7-N7*H7)/F7</f>
-        <v>158.36928556610695</v>
+        <f t="shared" si="3"/>
+        <v>142.95912417860049</v>
       </c>
       <c r="T7">
-        <f>(P7-N7*H7)/P7</f>
-        <v>6.2901324756640689E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.707573612427707E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6923,7 +7215,7 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D8" s="1">
@@ -6944,7 +7236,7 @@
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>3.0643139649131541</v>
+        <v>3.0631421226406865</v>
       </c>
       <c r="K8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
@@ -6957,28 +7249,28 @@
         <v>0.02</v>
       </c>
       <c r="N8">
-        <f>J8/L8</f>
-        <v>0.6128627929826308</v>
+        <f t="shared" si="1"/>
+        <v>0.61262842452813726</v>
       </c>
       <c r="O8">
-        <f>SQRT((M8/L8)^2+(K8/J8)^2)*N8</f>
-        <v>3.1585411427351703E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1585338680649867E-2</v>
       </c>
       <c r="P8">
         <f>B8*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q8">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R8">
-        <f>(P8-N8*H8)/F8</f>
-        <v>173.31439544482822</v>
+        <f t="shared" si="3"/>
+        <v>162.60683180166077</v>
       </c>
       <c r="T8">
-        <f>(P8-N8*H8)/P8</f>
-        <v>7.7963393202440626E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.3526804573092006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -6990,7 +7282,7 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D9" s="1">
@@ -7011,7 +7303,7 @@
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>3.0444147565127646</v>
+        <v>3.0484167084243983</v>
       </c>
       <c r="K9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
@@ -7024,28 +7316,28 @@
         <v>0.02</v>
       </c>
       <c r="N9">
-        <f>J9/L9</f>
-        <v>0.60888295130255288</v>
+        <f t="shared" si="1"/>
+        <v>0.6096833416848797</v>
       </c>
       <c r="O9">
-        <f>SQRT((M9/L9)^2+(K9/J9)^2)*N9</f>
-        <v>3.1584179858924782E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1584426900305926E-2</v>
       </c>
       <c r="P9">
         <f>B9*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q9">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R9">
-        <f>(P9-N9*H9)/F9</f>
-        <v>181.17157765610906</v>
+        <f t="shared" si="3"/>
+        <v>167.41729075309789</v>
       </c>
       <c r="T9">
-        <f>(P9-N9*H9)/P9</f>
-        <v>8.3950964581071499E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.7980630421429692E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -7057,7 +7349,7 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D10" s="1">
@@ -7078,7 +7370,7 @@
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>3.0941185570506256</v>
+        <v>3.0786635051929889</v>
       </c>
       <c r="K10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
@@ -7091,28 +7383,28 @@
         <v>0.02</v>
       </c>
       <c r="N10">
-        <f>J10/L10</f>
-        <v>0.61882371141012515</v>
+        <f t="shared" si="1"/>
+        <v>0.61573270103859779</v>
       </c>
       <c r="O10">
-        <f>SQRT((M10/L10)^2+(K10/J10)^2)*N10</f>
-        <v>3.1587270960935741E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1586304474135185E-2</v>
       </c>
       <c r="P10">
         <f>B10*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q10">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R10">
-        <f>(P10-N10*H10)/F10</f>
-        <v>151.35341851653246</v>
+        <f t="shared" si="3"/>
+        <v>150.2150699611752</v>
       </c>
       <c r="T10">
-        <f>(P10-N10*H10)/P10</f>
-        <v>6.8995341848669414E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.8832231381601244E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -7124,7 +7416,7 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D11" s="1">
@@ -7149,7 +7441,7 @@
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>2.9320063392821201</v>
+        <v>2.9328686383128022</v>
       </c>
       <c r="K11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
@@ -7162,28 +7454,28 @@
         <v>0.02</v>
       </c>
       <c r="N11">
-        <f>J11/L11</f>
-        <v>0.58640126785642399</v>
+        <f t="shared" si="1"/>
+        <v>0.58657372766256044</v>
       </c>
       <c r="O11">
-        <f>SQRT((M11/L11)^2+(K11/J11)^2)*N11</f>
-        <v>3.1577372679464921E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1577423929042454E-2</v>
       </c>
       <c r="P11">
         <f>B11*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q11">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R11">
-        <f>(P11-N11*H11)/F11</f>
-        <v>1098.4415485427467</v>
+        <f t="shared" si="3"/>
+        <v>1047.8094943565111</v>
       </c>
       <c r="T11">
-        <f>(P11-N11*H11)/P11</f>
-        <v>0.11777409001324794</v>
+        <f t="shared" si="4"/>
+        <v>0.11292911973586443</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -7195,7 +7487,7 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D12" s="1">
@@ -7220,7 +7512,7 @@
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>2.9832136355657877</v>
+        <v>2.9890507366965688</v>
       </c>
       <c r="K12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
@@ -7233,28 +7525,28 @@
         <v>0.02</v>
       </c>
       <c r="N12">
-        <f>J12/L12</f>
-        <v>0.59664272711315758</v>
+        <f t="shared" si="1"/>
+        <v>0.59781014733931381</v>
       </c>
       <c r="O12">
-        <f>SQRT((M12/L12)^2+(K12/J12)^2)*N12</f>
-        <v>3.1580442094558972E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1580795331069632E-2</v>
       </c>
       <c r="P12">
         <f>B12*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q12">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R12">
-        <f>(P12-N12*H12)/F12</f>
-        <v>954.73586533768855</v>
+        <f t="shared" si="3"/>
+        <v>890.14276679862587</v>
       </c>
       <c r="T12">
-        <f>(P12-N12*H12)/P12</f>
-        <v>0.10236607299890503</v>
+        <f t="shared" si="4"/>
+        <v>9.5936369764953941E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -7266,7 +7558,7 @@
         <v>100</v>
       </c>
       <c r="C13">
-        <f>0.08</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="D13" s="1">
@@ -7291,7 +7583,7 @@
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>2.9241350968481874</v>
+        <v>2.9188728617378628</v>
       </c>
       <c r="K13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
@@ -7304,28 +7596,28 @@
         <v>0.02</v>
       </c>
       <c r="N13">
-        <f>J13/L13</f>
-        <v>0.58482701936963744</v>
+        <f t="shared" si="1"/>
+        <v>0.58377457234757257</v>
       </c>
       <c r="O13">
-        <f>SQRT((M13/L13)^2+(K13/J13)^2)*N13</f>
-        <v>3.1576905555612572E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.1576593961474587E-2</v>
       </c>
       <c r="P13">
         <f>B13*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="Q13">
         <f>_xlfn.STDEV.S(Parameters!$B$8:$B$9)</f>
-        <v>1.632890824042528E-2</v>
+        <v>1.6597818108694932E-2</v>
       </c>
       <c r="R13">
-        <f>(P13-N13*H13)/F13</f>
-        <v>1120.5310231632168</v>
+        <f t="shared" si="3"/>
+        <v>1087.0865658024504</v>
       </c>
       <c r="T13">
-        <f>(P13-N13*H13)/P13</f>
-        <v>0.12014250713635112</v>
+        <f t="shared" si="4"/>
+        <v>0.11716226051964457</v>
       </c>
     </row>
   </sheetData>
@@ -7343,7 +7635,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7395,11 +7687,11 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!N2:N4)</f>
-        <v>0.64446568395332338</v>
+        <v>0.64276024809263799</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!N2:N4)</f>
-        <v>2.223398787505055E-2</v>
+        <v>2.2075514230639869E-2</v>
       </c>
       <c r="D2" t="e">
         <f>AVERAGE('Bottle Results'!R2:R4)</f>
@@ -7411,15 +7703,15 @@
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!P2:P4)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="G2">
         <f>AVERAGE('Bottle Results'!T2:T4)</f>
-        <v>3.0417641218054108E-2</v>
+        <v>2.7958682455113754E-2</v>
       </c>
       <c r="H2">
         <f>_xlfn.STDEV.S('Bottle Results'!T2:T4)</f>
-        <v>3.3450473695946281E-2</v>
+        <v>3.3384628252771713E-2</v>
       </c>
       <c r="I2">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
@@ -7440,31 +7732,31 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!N5:N7)</f>
-        <v>0.6254273005681803</v>
+        <v>0.62362163165777451</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!N5:N7)</f>
-        <v>9.7783246685129756E-3</v>
+        <v>1.0719502702468298E-2</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!R5:R7)</f>
-        <v>135.88119085287926</v>
+        <v>129.81667667473337</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!R5:R7)</f>
-        <v>35.853166414458016</v>
+        <v>35.895970975198622</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!P5:P7)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!T5:T7)</f>
-        <v>5.9060408598200574E-2</v>
+        <v>5.6901863043110706E-2</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!T5:T7)</f>
-        <v>1.4711242713303475E-2</v>
+        <v>1.6211020456310957E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -7485,31 +7777,31 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!N8:N10)</f>
-        <v>0.6135231518984362</v>
+        <v>0.61268148908387154</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!N8:N10)</f>
-        <v>5.0031723238699198E-3</v>
+        <v>3.0250287656335747E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!R8:R10)</f>
-        <v>168.61313053915657</v>
+        <v>160.07973083864462</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!R8:R10)</f>
-        <v>15.455001533589501</v>
+        <v>8.8751777166134627</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!P8:P10)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!T8:T10)</f>
-        <v>7.6969899877393846E-2</v>
+        <v>7.3446555458707638E-2</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!T8:T10)</f>
-        <v>7.5271465090477607E-3</v>
+        <v>4.5747274441493369E-3</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -7530,31 +7822,31 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!N11:N13)</f>
-        <v>0.58929033811307296</v>
+        <v>0.58938614911648235</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!N11:N13)</f>
-        <v>6.4158228296112537E-3</v>
+        <v>7.4284336951377494E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!R11:R13)</f>
-        <v>1057.902812347884</v>
+        <v>1008.3462756525291</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!R11:R13)</f>
-        <v>90.025276666086697</v>
+        <v>104.23398780807268</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!P11:P13)</f>
-        <v>66.468379722063446</v>
+        <v>66.124786723683386</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!T11:T13)</f>
-        <v>0.11342755671616804</v>
+        <v>0.10867591667348764</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!T11:T13)</f>
-        <v>9.6524435475017385E-3</v>
+        <v>1.1233962426493766E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
